--- a/rider/weekly/2017_ 5.xlsx
+++ b/rider/weekly/2017_ 5.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>262</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>259</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>229.92</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.36</c:v>
+                  <c:v>211.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.07</c:v>
+                  <c:v>195.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>226.31</c:v>
+                  <c:v>222.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237.29</c:v>
+                  <c:v>238.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.8</c:v>
+                  <c:v>120.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102.38</c:v>
+                  <c:v>101.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D2">
-        <v>229.92</v>
+        <v>235</v>
       </c>
       <c r="E2">
         <v>103.03</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D3">
-        <v>212.36</v>
+        <v>211.64</v>
       </c>
       <c r="E3">
         <v>103.19</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D4">
-        <v>210.07</v>
+        <v>195.29</v>
       </c>
       <c r="E4">
         <v>103.35</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D5">
-        <v>226.31</v>
+        <v>222.46</v>
       </c>
       <c r="E5">
         <v>103.51</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D6">
-        <v>237.29</v>
+        <v>238.64</v>
       </c>
       <c r="E6">
         <v>103.68</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7">
-        <v>118.8</v>
+        <v>120.2</v>
       </c>
       <c r="E7">
         <v>103.84</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>102.38</v>
+        <v>101.08</v>
       </c>
       <c r="E8">
         <v>104</v>
